--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efna5-Epha1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efna5-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.79180472650951</v>
+        <v>0.230855</v>
       </c>
       <c r="H2">
-        <v>2.79180472650951</v>
+        <v>0.692565</v>
       </c>
       <c r="I2">
-        <v>0.8528760338530638</v>
+        <v>0.06377305075821572</v>
       </c>
       <c r="J2">
-        <v>0.8528760338530638</v>
+        <v>0.06377305075821572</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.97437747312276</v>
+        <v>8.160945333333332</v>
       </c>
       <c r="N2">
-        <v>6.97437747312276</v>
+        <v>24.482836</v>
       </c>
       <c r="O2">
-        <v>0.4936181840292094</v>
+        <v>0.491005088714322</v>
       </c>
       <c r="P2">
-        <v>0.4936181840292094</v>
+        <v>0.491005088714322</v>
       </c>
       <c r="Q2">
-        <v>19.47109999392557</v>
+        <v>1.883995034926667</v>
       </c>
       <c r="R2">
-        <v>19.47109999392557</v>
+        <v>16.95595531434</v>
       </c>
       <c r="S2">
-        <v>0.4209951190325839</v>
+        <v>0.03131289244512067</v>
       </c>
       <c r="T2">
-        <v>0.4209951190325839</v>
+        <v>0.03131289244512067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.79180472650951</v>
+        <v>0.230855</v>
       </c>
       <c r="H3">
-        <v>2.79180472650951</v>
+        <v>0.692565</v>
       </c>
       <c r="I3">
-        <v>0.8528760338530638</v>
+        <v>0.06377305075821572</v>
       </c>
       <c r="J3">
-        <v>0.8528760338530638</v>
+        <v>0.06377305075821572</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.47301256276191</v>
+        <v>2.477462333333333</v>
       </c>
       <c r="N3">
-        <v>2.47301256276191</v>
+        <v>7.432386999999999</v>
       </c>
       <c r="O3">
-        <v>0.175029810906604</v>
+        <v>0.1490570715865667</v>
       </c>
       <c r="P3">
-        <v>0.175029810906604</v>
+        <v>0.1490570715865668</v>
       </c>
       <c r="Q3">
-        <v>6.904168161436097</v>
+        <v>0.5719345669616666</v>
       </c>
       <c r="R3">
-        <v>6.904168161436097</v>
+        <v>5.147411102654999</v>
       </c>
       <c r="S3">
-        <v>0.1492787309320761</v>
+        <v>0.009505824192161115</v>
       </c>
       <c r="T3">
-        <v>0.1492787309320761</v>
+        <v>0.009505824192161116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.79180472650951</v>
+        <v>0.230855</v>
       </c>
       <c r="H4">
-        <v>2.79180472650951</v>
+        <v>0.692565</v>
       </c>
       <c r="I4">
-        <v>0.8528760338530638</v>
+        <v>0.06377305075821572</v>
       </c>
       <c r="J4">
-        <v>0.8528760338530638</v>
+        <v>0.06377305075821572</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.68170345940289</v>
+        <v>5.982489999999999</v>
       </c>
       <c r="N4">
-        <v>4.68170345940289</v>
+        <v>17.94747</v>
       </c>
       <c r="O4">
-        <v>0.3313520050641866</v>
+        <v>0.3599378396991113</v>
       </c>
       <c r="P4">
-        <v>0.3313520050641866</v>
+        <v>0.3599378396991114</v>
       </c>
       <c r="Q4">
-        <v>13.07040184607691</v>
+        <v>1.38108772895</v>
       </c>
       <c r="R4">
-        <v>13.07040184607691</v>
+        <v>12.42978956055</v>
       </c>
       <c r="S4">
-        <v>0.2826021838884037</v>
+        <v>0.02295433412093394</v>
       </c>
       <c r="T4">
-        <v>0.2826021838884037</v>
+        <v>0.02295433412093394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.48159564551981</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H5">
-        <v>0.48159564551981</v>
+        <v>8.702194</v>
       </c>
       <c r="I5">
-        <v>0.1471239661469362</v>
+        <v>0.8013189515350044</v>
       </c>
       <c r="J5">
-        <v>0.1471239661469362</v>
+        <v>0.8013189515350045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.97437747312276</v>
+        <v>8.160945333333332</v>
       </c>
       <c r="N5">
-        <v>6.97437747312276</v>
+        <v>24.482836</v>
       </c>
       <c r="O5">
-        <v>0.4936181840292094</v>
+        <v>0.491005088714322</v>
       </c>
       <c r="P5">
-        <v>0.4936181840292094</v>
+        <v>0.491005088714322</v>
       </c>
       <c r="Q5">
-        <v>3.358829821267377</v>
+        <v>23.67270983802044</v>
       </c>
       <c r="R5">
-        <v>3.358829821267377</v>
+        <v>213.054388542184</v>
       </c>
       <c r="S5">
-        <v>0.07262306499662552</v>
+        <v>0.3934516828869123</v>
       </c>
       <c r="T5">
-        <v>0.07262306499662552</v>
+        <v>0.3934516828869123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.48159564551981</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H6">
-        <v>0.48159564551981</v>
+        <v>8.702194</v>
       </c>
       <c r="I6">
-        <v>0.1471239661469362</v>
+        <v>0.8013189515350044</v>
       </c>
       <c r="J6">
-        <v>0.1471239661469362</v>
+        <v>0.8013189515350045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47301256276191</v>
+        <v>2.477462333333333</v>
       </c>
       <c r="N6">
-        <v>2.47301256276191</v>
+        <v>7.432386999999999</v>
       </c>
       <c r="O6">
-        <v>0.175029810906604</v>
+        <v>0.1490570715865667</v>
       </c>
       <c r="P6">
-        <v>0.175029810906604</v>
+        <v>0.1490570715865668</v>
       </c>
       <c r="Q6">
-        <v>1.190992081541922</v>
+        <v>7.18645261745311</v>
       </c>
       <c r="R6">
-        <v>1.190992081541922</v>
+        <v>64.67807355707799</v>
       </c>
       <c r="S6">
-        <v>0.02575107997452785</v>
+        <v>0.1194422563226257</v>
       </c>
       <c r="T6">
-        <v>0.02575107997452785</v>
+        <v>0.1194422563226258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.900731333333333</v>
+      </c>
+      <c r="H7">
+        <v>8.702194</v>
+      </c>
+      <c r="I7">
+        <v>0.8013189515350044</v>
+      </c>
+      <c r="J7">
+        <v>0.8013189515350045</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.982489999999999</v>
+      </c>
+      <c r="N7">
+        <v>17.94747</v>
+      </c>
+      <c r="O7">
+        <v>0.3599378396991113</v>
+      </c>
+      <c r="P7">
+        <v>0.3599378396991114</v>
+      </c>
+      <c r="Q7">
+        <v>17.35359619435333</v>
+      </c>
+      <c r="R7">
+        <v>156.18236574918</v>
+      </c>
+      <c r="S7">
+        <v>0.2884250123254664</v>
+      </c>
+      <c r="T7">
+        <v>0.2884250123254665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4883596666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.465079</v>
+      </c>
+      <c r="I8">
+        <v>0.1349079977067798</v>
+      </c>
+      <c r="J8">
+        <v>0.1349079977067798</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.160945333333332</v>
+      </c>
+      <c r="N8">
+        <v>24.482836</v>
+      </c>
+      <c r="O8">
+        <v>0.491005088714322</v>
+      </c>
+      <c r="P8">
+        <v>0.491005088714322</v>
+      </c>
+      <c r="Q8">
+        <v>3.985476542671555</v>
+      </c>
+      <c r="R8">
+        <v>35.869288884044</v>
+      </c>
+      <c r="S8">
+        <v>0.06624051338228897</v>
+      </c>
+      <c r="T8">
+        <v>0.06624051338228897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.48159564551981</v>
-      </c>
-      <c r="H7">
-        <v>0.48159564551981</v>
-      </c>
-      <c r="I7">
-        <v>0.1471239661469362</v>
-      </c>
-      <c r="J7">
-        <v>0.1471239661469362</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.68170345940289</v>
-      </c>
-      <c r="N7">
-        <v>4.68170345940289</v>
-      </c>
-      <c r="O7">
-        <v>0.3313520050641866</v>
-      </c>
-      <c r="P7">
-        <v>0.3313520050641866</v>
-      </c>
-      <c r="Q7">
-        <v>2.254687999663462</v>
-      </c>
-      <c r="R7">
-        <v>2.254687999663462</v>
-      </c>
-      <c r="S7">
-        <v>0.04874982117578282</v>
-      </c>
-      <c r="T7">
-        <v>0.04874982117578282</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4883596666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.465079</v>
+      </c>
+      <c r="I9">
+        <v>0.1349079977067798</v>
+      </c>
+      <c r="J9">
+        <v>0.1349079977067798</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.477462333333333</v>
+      </c>
+      <c r="N9">
+        <v>7.432386999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.1490570715865667</v>
+      </c>
+      <c r="P9">
+        <v>0.1490570715865668</v>
+      </c>
+      <c r="Q9">
+        <v>1.209892679285889</v>
+      </c>
+      <c r="R9">
+        <v>10.889034113573</v>
+      </c>
+      <c r="S9">
+        <v>0.02010899107177986</v>
+      </c>
+      <c r="T9">
+        <v>0.02010899107177986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4883596666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.465079</v>
+      </c>
+      <c r="I10">
+        <v>0.1349079977067798</v>
+      </c>
+      <c r="J10">
+        <v>0.1349079977067798</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.982489999999999</v>
+      </c>
+      <c r="N10">
+        <v>17.94747</v>
+      </c>
+      <c r="O10">
+        <v>0.3599378396991113</v>
+      </c>
+      <c r="P10">
+        <v>0.3599378396991114</v>
+      </c>
+      <c r="Q10">
+        <v>2.921606822236666</v>
+      </c>
+      <c r="R10">
+        <v>26.29446140013</v>
+      </c>
+      <c r="S10">
+        <v>0.04855849325271099</v>
+      </c>
+      <c r="T10">
+        <v>0.04855849325271099</v>
       </c>
     </row>
   </sheetData>
